--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2028" yWindow="708" windowWidth="11496" windowHeight="11652" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,6 +25,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Wingdings"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="12"/>
     </font>
@@ -38,10 +42,6 @@
       <sz val="14"/>
     </font>
     <font>
-      <name val="Wingdings"/>
-      <sz val="12"/>
-    </font>
-    <font>
       <sz val="12"/>
     </font>
     <font>
@@ -52,12 +52,22 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0B0B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b0b0b0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -147,24 +157,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -181,7 +197,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,432 +549,559 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:C37"/>
+      <selection activeCell="D6" sqref="A1:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="4.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="39.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="10.6640625" bestFit="1" customWidth="1" min="4" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Nama Siswa</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Tugas 1</t>
         </is>
       </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>Tugas 2</t>
+        </is>
+      </c>
+      <c r="E1" s="10" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="11" t="n"/>
-      <c r="B2" s="11" t="n"/>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="A2" s="13" t="n"/>
+      <c r="B2" s="13" t="n"/>
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>MAT16</t>
         </is>
       </c>
+      <c r="D2" s="14" t="inlineStr">
+        <is>
+          <t>BINDO10</t>
+        </is>
+      </c>
+      <c r="E2" s="14" t="inlineStr">
+        <is>
+          <t>BINDO11</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr"/>
+      <c r="C3" s="11" t="inlineStr"/>
+      <c r="D3" s="15" t="inlineStr"/>
+      <c r="E3" s="11" t="inlineStr"/>
     </row>
     <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr"/>
+      <c r="C4" s="11" t="inlineStr"/>
+      <c r="D4" s="15" t="inlineStr"/>
+      <c r="E4" s="11" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
+      <c r="D5" s="15" t="inlineStr"/>
+      <c r="E5" s="11" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>Arif Fathurrahman</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr"/>
+      <c r="C6" s="11" t="inlineStr"/>
+      <c r="D6" s="15" t="inlineStr"/>
+      <c r="E6" s="11" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="12" t="inlineStr">
         <is>
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr"/>
+      <c r="C7" s="11" t="inlineStr"/>
+      <c r="D7" s="15" t="inlineStr"/>
+      <c r="E7" s="11" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>Cleolia Jasmine Nasution</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr"/>
+      <c r="C8" s="11" t="inlineStr"/>
+      <c r="D8" s="15" t="inlineStr"/>
+      <c r="E8" s="11" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="inlineStr">
+      <c r="B9" s="12" t="inlineStr">
         <is>
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr"/>
+      <c r="C9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D9" s="15" t="inlineStr"/>
+      <c r="E9" s="11" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>Dinda Fatchus Sabila Fa'izatur Rahmah</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr"/>
+      <c r="C10" s="11" t="inlineStr"/>
+      <c r="D10" s="15" t="inlineStr"/>
+      <c r="E10" s="11" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="12" t="inlineStr">
         <is>
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr"/>
+      <c r="C11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D11" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="12" t="inlineStr">
         <is>
           <t>Farhan Nur Aliani</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr"/>
+      <c r="C12" s="11" t="inlineStr"/>
+      <c r="D12" s="15" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="inlineStr">
+      <c r="B13" s="12" t="inlineStr">
         <is>
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="9" t="inlineStr"/>
+      <c r="C13" s="11" t="inlineStr"/>
+      <c r="D13" s="15" t="inlineStr"/>
+      <c r="E13" s="11" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="9" t="n">
+      <c r="A14" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="inlineStr">
+      <c r="B14" s="12" t="inlineStr">
         <is>
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="9" t="inlineStr"/>
+      <c r="C14" s="11" t="inlineStr"/>
+      <c r="D14" s="15" t="inlineStr"/>
+      <c r="E14" s="11" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="inlineStr">
+      <c r="B15" s="12" t="inlineStr">
         <is>
           <t>Mohammad Ilham Saputra</t>
         </is>
       </c>
-      <c r="C15" s="9" t="inlineStr"/>
+      <c r="C15" s="11" t="inlineStr"/>
+      <c r="D15" s="15" t="inlineStr"/>
+      <c r="E15" s="11" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="9" t="n">
+      <c r="A16" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="inlineStr">
+      <c r="B16" s="12" t="inlineStr">
         <is>
           <t>Muhammad Akbar Ariq Jeconia Lesmana</t>
         </is>
       </c>
-      <c r="C16" s="9" t="inlineStr"/>
+      <c r="C16" s="11" t="inlineStr"/>
+      <c r="D16" s="15" t="inlineStr"/>
+      <c r="E16" s="11" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="9" t="n">
+      <c r="A17" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="inlineStr">
+      <c r="B17" s="12" t="inlineStr">
         <is>
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="9" t="inlineStr"/>
+      <c r="C17" s="11" t="inlineStr"/>
+      <c r="D17" s="15" t="inlineStr"/>
+      <c r="E17" s="11" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="inlineStr">
+      <c r="B18" s="12" t="inlineStr">
         <is>
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C18" s="9" t="inlineStr"/>
+      <c r="C18" s="11" t="inlineStr"/>
+      <c r="D18" s="15" t="inlineStr"/>
+      <c r="E18" s="11" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="inlineStr">
+      <c r="B19" s="12" t="inlineStr">
         <is>
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="9" t="inlineStr"/>
+      <c r="C19" s="11" t="inlineStr"/>
+      <c r="D19" s="15" t="inlineStr"/>
+      <c r="E19" s="11" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="inlineStr">
+      <c r="B20" s="12" t="inlineStr">
         <is>
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C20" s="9" t="inlineStr"/>
+      <c r="C20" s="11" t="inlineStr"/>
+      <c r="D20" s="15" t="inlineStr"/>
+      <c r="E20" s="11" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
-      <c r="A21" s="9" t="n">
+      <c r="A21" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="inlineStr">
+      <c r="B21" s="12" t="inlineStr">
         <is>
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C21" s="9" t="inlineStr"/>
+      <c r="C21" s="11" t="inlineStr"/>
+      <c r="D21" s="15" t="inlineStr"/>
+      <c r="E21" s="11" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
-      <c r="A22" s="9" t="n">
+      <c r="A22" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="inlineStr">
+      <c r="B22" s="12" t="inlineStr">
         <is>
           <t>Muhammad Saputra</t>
         </is>
       </c>
-      <c r="C22" s="9" t="inlineStr"/>
+      <c r="C22" s="11" t="inlineStr"/>
+      <c r="D22" s="15" t="inlineStr"/>
+      <c r="E22" s="11" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="9" t="n">
+      <c r="A23" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="inlineStr">
+      <c r="B23" s="12" t="inlineStr">
         <is>
           <t>Muhammad Yusuf</t>
         </is>
       </c>
-      <c r="C23" s="9" t="inlineStr"/>
+      <c r="C23" s="11" t="inlineStr"/>
+      <c r="D23" s="15" t="inlineStr"/>
+      <c r="E23" s="11" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="9" t="n">
+      <c r="A24" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="inlineStr">
+      <c r="B24" s="12" t="inlineStr">
         <is>
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="9" t="inlineStr"/>
+      <c r="C24" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D24" s="15" t="inlineStr"/>
+      <c r="E24" s="11" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="9" t="n">
+      <c r="A25" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="inlineStr">
+      <c r="B25" s="12" t="inlineStr">
         <is>
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="9" t="inlineStr"/>
+      <c r="C25" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D25" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E25" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="9" t="n">
+      <c r="A26" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="inlineStr">
+      <c r="B26" s="12" t="inlineStr">
         <is>
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="9" t="inlineStr"/>
+      <c r="C26" s="11" t="inlineStr"/>
+      <c r="D26" s="15" t="inlineStr"/>
+      <c r="E26" s="11" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="9" t="n">
+      <c r="A27" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="inlineStr">
+      <c r="B27" s="12" t="inlineStr">
         <is>
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="9" t="inlineStr"/>
+      <c r="C27" s="11" t="inlineStr"/>
+      <c r="D27" s="15" t="inlineStr"/>
+      <c r="E27" s="11" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="9" t="n">
+      <c r="A28" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="inlineStr">
+      <c r="B28" s="12" t="inlineStr">
         <is>
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="9" t="inlineStr"/>
+      <c r="C28" s="11" t="inlineStr"/>
+      <c r="D28" s="15" t="inlineStr"/>
+      <c r="E28" s="11" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="9" t="n">
+      <c r="A29" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="inlineStr">
+      <c r="B29" s="12" t="inlineStr">
         <is>
           <t>Rafli Febryan</t>
         </is>
       </c>
-      <c r="C29" s="9" t="inlineStr"/>
+      <c r="C29" s="11" t="inlineStr"/>
+      <c r="D29" s="15" t="inlineStr"/>
+      <c r="E29" s="11" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="9" t="n">
+      <c r="A30" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="10" t="inlineStr">
+      <c r="B30" s="12" t="inlineStr">
         <is>
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C30" s="9" t="inlineStr"/>
+      <c r="C30" s="11" t="inlineStr"/>
+      <c r="D30" s="15" t="inlineStr"/>
+      <c r="E30" s="11" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="9" t="n">
+      <c r="A31" s="11" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="10" t="inlineStr">
+      <c r="B31" s="12" t="inlineStr">
         <is>
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="9" t="inlineStr"/>
+      <c r="C31" s="11" t="inlineStr"/>
+      <c r="D31" s="15" t="inlineStr"/>
+      <c r="E31" s="11" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="9" t="n">
+      <c r="A32" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="10" t="inlineStr">
+      <c r="B32" s="12" t="inlineStr">
         <is>
           <t>Salsabila Nur Fairuz</t>
         </is>
       </c>
-      <c r="C32" s="9" t="inlineStr"/>
+      <c r="C32" s="11" t="inlineStr"/>
+      <c r="D32" s="15" t="inlineStr"/>
+      <c r="E32" s="11" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="9" t="n">
+      <c r="A33" s="11" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="10" t="inlineStr">
+      <c r="B33" s="12" t="inlineStr">
         <is>
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="9" t="inlineStr"/>
+      <c r="C33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D33" s="15" t="inlineStr"/>
+      <c r="E33" s="11" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="9" t="n">
+      <c r="A34" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="10" t="inlineStr">
+      <c r="B34" s="12" t="inlineStr">
         <is>
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="9" t="inlineStr"/>
+      <c r="C34" s="11" t="inlineStr"/>
+      <c r="D34" s="15" t="inlineStr"/>
+      <c r="E34" s="11" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="9" t="n">
+      <c r="A35" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="10" t="inlineStr">
+      <c r="B35" s="12" t="inlineStr">
         <is>
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="9" t="inlineStr"/>
+      <c r="C35" s="11" t="inlineStr"/>
+      <c r="D35" s="15" t="inlineStr"/>
+      <c r="E35" s="11" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
-      <c r="A36" s="9" t="n">
+      <c r="A36" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="10" t="inlineStr">
+      <c r="B36" s="12" t="inlineStr">
         <is>
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="9" t="inlineStr"/>
+      <c r="C36" s="11" t="inlineStr"/>
+      <c r="D36" s="15" t="inlineStr"/>
+      <c r="E36" s="11" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
-      <c r="A37" s="9" t="n">
+      <c r="A37" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="10" t="inlineStr">
+      <c r="B37" s="12" t="inlineStr">
         <is>
           <t>Yehezkiel Dio Sinolungan</t>
         </is>
       </c>
-      <c r="C37" s="9" t="inlineStr"/>
+      <c r="C37" s="11" t="inlineStr"/>
+      <c r="D37" s="15" t="inlineStr"/>
+      <c r="E37" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
@@ -819,7 +819,11 @@
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="11" t="inlineStr"/>
+      <c r="C17" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D17" s="15" t="inlineStr"/>
       <c r="E17" s="11" t="inlineStr"/>
     </row>
@@ -1017,9 +1021,21 @@
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="11" t="inlineStr"/>
-      <c r="D31" s="15" t="inlineStr"/>
-      <c r="E31" s="11" t="inlineStr"/>
+      <c r="C31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D31" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
@@ -549,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="A1:E37"/>
@@ -588,6 +588,21 @@
           <t>Tugas 3</t>
         </is>
       </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Tugas 4</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Tugas 5</t>
+        </is>
+      </c>
+      <c r="H1" s="10" t="inlineStr">
+        <is>
+          <t>Tugas 6</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="13" t="n"/>
@@ -607,6 +622,21 @@
           <t>BINDO11</t>
         </is>
       </c>
+      <c r="F2" s="14" t="inlineStr">
+        <is>
+          <t>PPL4</t>
+        </is>
+      </c>
+      <c r="G2" s="14" t="inlineStr">
+        <is>
+          <t>PJOK2</t>
+        </is>
+      </c>
+      <c r="H2" s="14" t="inlineStr">
+        <is>
+          <t>PKN6</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="11" t="n">
@@ -620,6 +650,9 @@
       <c r="C3" s="11" t="inlineStr"/>
       <c r="D3" s="15" t="inlineStr"/>
       <c r="E3" s="11" t="inlineStr"/>
+      <c r="F3" s="15" t="inlineStr"/>
+      <c r="G3" s="11" t="inlineStr"/>
+      <c r="H3" s="15" t="inlineStr"/>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="11" t="n">
@@ -633,6 +666,9 @@
       <c r="C4" s="11" t="inlineStr"/>
       <c r="D4" s="15" t="inlineStr"/>
       <c r="E4" s="11" t="inlineStr"/>
+      <c r="F4" s="15" t="inlineStr"/>
+      <c r="G4" s="11" t="inlineStr"/>
+      <c r="H4" s="15" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="11" t="n">
@@ -650,6 +686,9 @@
       </c>
       <c r="D5" s="15" t="inlineStr"/>
       <c r="E5" s="11" t="inlineStr"/>
+      <c r="F5" s="15" t="inlineStr"/>
+      <c r="G5" s="11" t="inlineStr"/>
+      <c r="H5" s="15" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="11" t="n">
@@ -663,6 +702,9 @@
       <c r="C6" s="11" t="inlineStr"/>
       <c r="D6" s="15" t="inlineStr"/>
       <c r="E6" s="11" t="inlineStr"/>
+      <c r="F6" s="15" t="inlineStr"/>
+      <c r="G6" s="11" t="inlineStr"/>
+      <c r="H6" s="15" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="11" t="n">
@@ -676,6 +718,13 @@
       <c r="C7" s="11" t="inlineStr"/>
       <c r="D7" s="15" t="inlineStr"/>
       <c r="E7" s="11" t="inlineStr"/>
+      <c r="F7" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G7" s="11" t="inlineStr"/>
+      <c r="H7" s="15" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="11" t="n">
@@ -689,6 +738,9 @@
       <c r="C8" s="11" t="inlineStr"/>
       <c r="D8" s="15" t="inlineStr"/>
       <c r="E8" s="11" t="inlineStr"/>
+      <c r="F8" s="15" t="inlineStr"/>
+      <c r="G8" s="11" t="inlineStr"/>
+      <c r="H8" s="15" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="11" t="n">
@@ -706,6 +758,9 @@
       </c>
       <c r="D9" s="15" t="inlineStr"/>
       <c r="E9" s="11" t="inlineStr"/>
+      <c r="F9" s="15" t="inlineStr"/>
+      <c r="G9" s="11" t="inlineStr"/>
+      <c r="H9" s="15" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="11" t="n">
@@ -719,6 +774,9 @@
       <c r="C10" s="11" t="inlineStr"/>
       <c r="D10" s="15" t="inlineStr"/>
       <c r="E10" s="11" t="inlineStr"/>
+      <c r="F10" s="15" t="inlineStr"/>
+      <c r="G10" s="11" t="inlineStr"/>
+      <c r="H10" s="15" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="11" t="n">
@@ -744,6 +802,9 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="F11" s="15" t="inlineStr"/>
+      <c r="G11" s="11" t="inlineStr"/>
+      <c r="H11" s="15" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="11" t="n">
@@ -757,6 +818,9 @@
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="15" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
+      <c r="F12" s="15" t="inlineStr"/>
+      <c r="G12" s="11" t="inlineStr"/>
+      <c r="H12" s="15" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="11" t="n">
@@ -770,6 +834,9 @@
       <c r="C13" s="11" t="inlineStr"/>
       <c r="D13" s="15" t="inlineStr"/>
       <c r="E13" s="11" t="inlineStr"/>
+      <c r="F13" s="15" t="inlineStr"/>
+      <c r="G13" s="11" t="inlineStr"/>
+      <c r="H13" s="15" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="11" t="n">
@@ -783,6 +850,9 @@
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="15" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
+      <c r="F14" s="15" t="inlineStr"/>
+      <c r="G14" s="11" t="inlineStr"/>
+      <c r="H14" s="15" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="11" t="n">
@@ -796,6 +866,9 @@
       <c r="C15" s="11" t="inlineStr"/>
       <c r="D15" s="15" t="inlineStr"/>
       <c r="E15" s="11" t="inlineStr"/>
+      <c r="F15" s="15" t="inlineStr"/>
+      <c r="G15" s="11" t="inlineStr"/>
+      <c r="H15" s="15" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="11" t="n">
@@ -809,6 +882,9 @@
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="15" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
+      <c r="F16" s="15" t="inlineStr"/>
+      <c r="G16" s="11" t="inlineStr"/>
+      <c r="H16" s="15" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="11" t="n">
@@ -826,6 +902,9 @@
       </c>
       <c r="D17" s="15" t="inlineStr"/>
       <c r="E17" s="11" t="inlineStr"/>
+      <c r="F17" s="15" t="inlineStr"/>
+      <c r="G17" s="11" t="inlineStr"/>
+      <c r="H17" s="15" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="11" t="n">
@@ -839,6 +918,9 @@
       <c r="C18" s="11" t="inlineStr"/>
       <c r="D18" s="15" t="inlineStr"/>
       <c r="E18" s="11" t="inlineStr"/>
+      <c r="F18" s="15" t="inlineStr"/>
+      <c r="G18" s="11" t="inlineStr"/>
+      <c r="H18" s="15" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="11" t="n">
@@ -852,6 +934,9 @@
       <c r="C19" s="11" t="inlineStr"/>
       <c r="D19" s="15" t="inlineStr"/>
       <c r="E19" s="11" t="inlineStr"/>
+      <c r="F19" s="15" t="inlineStr"/>
+      <c r="G19" s="11" t="inlineStr"/>
+      <c r="H19" s="15" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="11" t="n">
@@ -865,6 +950,9 @@
       <c r="C20" s="11" t="inlineStr"/>
       <c r="D20" s="15" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
+      <c r="F20" s="15" t="inlineStr"/>
+      <c r="G20" s="11" t="inlineStr"/>
+      <c r="H20" s="15" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="11" t="n">
@@ -878,6 +966,9 @@
       <c r="C21" s="11" t="inlineStr"/>
       <c r="D21" s="15" t="inlineStr"/>
       <c r="E21" s="11" t="inlineStr"/>
+      <c r="F21" s="15" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr"/>
+      <c r="H21" s="15" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="11" t="n">
@@ -891,6 +982,9 @@
       <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="15" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
+      <c r="F22" s="15" t="inlineStr"/>
+      <c r="G22" s="11" t="inlineStr"/>
+      <c r="H22" s="15" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="11" t="n">
@@ -904,6 +998,9 @@
       <c r="C23" s="11" t="inlineStr"/>
       <c r="D23" s="15" t="inlineStr"/>
       <c r="E23" s="11" t="inlineStr"/>
+      <c r="F23" s="15" t="inlineStr"/>
+      <c r="G23" s="11" t="inlineStr"/>
+      <c r="H23" s="15" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="11" t="n">
@@ -921,6 +1018,9 @@
       </c>
       <c r="D24" s="15" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
+      <c r="F24" s="15" t="inlineStr"/>
+      <c r="G24" s="11" t="inlineStr"/>
+      <c r="H24" s="15" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="11" t="n">
@@ -946,6 +1046,13 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="F25" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G25" s="11" t="inlineStr"/>
+      <c r="H25" s="15" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="11" t="n">
@@ -959,6 +1066,9 @@
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="15" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
+      <c r="F26" s="15" t="inlineStr"/>
+      <c r="G26" s="11" t="inlineStr"/>
+      <c r="H26" s="15" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="11" t="n">
@@ -969,9 +1079,16 @@
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="11" t="inlineStr"/>
+      <c r="C27" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D27" s="15" t="inlineStr"/>
       <c r="E27" s="11" t="inlineStr"/>
+      <c r="F27" s="15" t="inlineStr"/>
+      <c r="G27" s="11" t="inlineStr"/>
+      <c r="H27" s="15" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="11" t="n">
@@ -985,6 +1102,9 @@
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="15" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
+      <c r="F28" s="15" t="inlineStr"/>
+      <c r="G28" s="11" t="inlineStr"/>
+      <c r="H28" s="15" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="11" t="n">
@@ -998,6 +1118,9 @@
       <c r="C29" s="11" t="inlineStr"/>
       <c r="D29" s="15" t="inlineStr"/>
       <c r="E29" s="11" t="inlineStr"/>
+      <c r="F29" s="15" t="inlineStr"/>
+      <c r="G29" s="11" t="inlineStr"/>
+      <c r="H29" s="15" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="11" t="n">
@@ -1011,6 +1134,9 @@
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="15" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
+      <c r="F30" s="15" t="inlineStr"/>
+      <c r="G30" s="11" t="inlineStr"/>
+      <c r="H30" s="15" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="11" t="n">
@@ -1036,6 +1162,13 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="F31" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G31" s="11" t="inlineStr"/>
+      <c r="H31" s="15" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="11" t="n">
@@ -1049,6 +1182,9 @@
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="15" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
+      <c r="F32" s="15" t="inlineStr"/>
+      <c r="G32" s="11" t="inlineStr"/>
+      <c r="H32" s="15" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="11" t="n">
@@ -1066,6 +1202,9 @@
       </c>
       <c r="D33" s="15" t="inlineStr"/>
       <c r="E33" s="11" t="inlineStr"/>
+      <c r="F33" s="15" t="inlineStr"/>
+      <c r="G33" s="11" t="inlineStr"/>
+      <c r="H33" s="15" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="11" t="n">
@@ -1079,6 +1218,9 @@
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="15" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
+      <c r="F34" s="15" t="inlineStr"/>
+      <c r="G34" s="11" t="inlineStr"/>
+      <c r="H34" s="15" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="11" t="n">
@@ -1089,9 +1231,16 @@
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="11" t="inlineStr"/>
+      <c r="C35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D35" s="15" t="inlineStr"/>
       <c r="E35" s="11" t="inlineStr"/>
+      <c r="F35" s="15" t="inlineStr"/>
+      <c r="G35" s="11" t="inlineStr"/>
+      <c r="H35" s="15" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="11" t="n">
@@ -1105,6 +1254,9 @@
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="15" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
+      <c r="F36" s="15" t="inlineStr"/>
+      <c r="G36" s="11" t="inlineStr"/>
+      <c r="H36" s="15" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="11" t="n">
@@ -1118,6 +1270,9 @@
       <c r="C37" s="11" t="inlineStr"/>
       <c r="D37" s="15" t="inlineStr"/>
       <c r="E37" s="11" t="inlineStr"/>
+      <c r="F37" s="15" t="inlineStr"/>
+      <c r="G37" s="11" t="inlineStr"/>
+      <c r="H37" s="15" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
@@ -686,7 +686,11 @@
       </c>
       <c r="D5" s="15" t="inlineStr"/>
       <c r="E5" s="11" t="inlineStr"/>
-      <c r="F5" s="15" t="inlineStr"/>
+      <c r="F5" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G5" s="11" t="inlineStr"/>
       <c r="H5" s="15" t="inlineStr"/>
     </row>
@@ -804,7 +808,11 @@
       </c>
       <c r="F11" s="15" t="inlineStr"/>
       <c r="G11" s="11" t="inlineStr"/>
-      <c r="H11" s="15" t="inlineStr"/>
+      <c r="H11" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="11" t="n">
@@ -918,7 +926,11 @@
       <c r="C18" s="11" t="inlineStr"/>
       <c r="D18" s="15" t="inlineStr"/>
       <c r="E18" s="11" t="inlineStr"/>
-      <c r="F18" s="15" t="inlineStr"/>
+      <c r="F18" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G18" s="11" t="inlineStr"/>
       <c r="H18" s="15" t="inlineStr"/>
     </row>
@@ -1052,7 +1064,11 @@
         </is>
       </c>
       <c r="G25" s="11" t="inlineStr"/>
-      <c r="H25" s="15" t="inlineStr"/>
+      <c r="H25" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="11" t="n">
@@ -1102,7 +1118,11 @@
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="15" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
-      <c r="F28" s="15" t="inlineStr"/>
+      <c r="F28" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G28" s="11" t="inlineStr"/>
       <c r="H28" s="15" t="inlineStr"/>
     </row>
@@ -1236,8 +1256,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D35" s="15" t="inlineStr"/>
-      <c r="E35" s="11" t="inlineStr"/>
+      <c r="D35" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F35" s="15" t="inlineStr"/>
       <c r="G35" s="11" t="inlineStr"/>
       <c r="H35" s="15" t="inlineStr"/>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
@@ -855,10 +855,18 @@
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="11" t="inlineStr"/>
+      <c r="C14" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D14" s="15" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
-      <c r="F14" s="15" t="inlineStr"/>
+      <c r="F14" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G14" s="11" t="inlineStr"/>
       <c r="H14" s="15" t="inlineStr"/>
     </row>
@@ -1079,12 +1087,32 @@
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="11" t="inlineStr"/>
-      <c r="D26" s="15" t="inlineStr"/>
-      <c r="E26" s="11" t="inlineStr"/>
-      <c r="F26" s="15" t="inlineStr"/>
+      <c r="C26" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D26" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E26" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F26" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G26" s="11" t="inlineStr"/>
-      <c r="H26" s="15" t="inlineStr"/>
+      <c r="H26" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
@@ -647,10 +647,18 @@
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr"/>
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D3" s="15" t="inlineStr"/>
       <c r="E3" s="11" t="inlineStr"/>
-      <c r="F3" s="15" t="inlineStr"/>
+      <c r="F3" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G3" s="11" t="inlineStr"/>
       <c r="H3" s="15" t="inlineStr"/>
     </row>
@@ -720,8 +728,16 @@
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr"/>
-      <c r="D7" s="15" t="inlineStr"/>
-      <c r="E7" s="11" t="inlineStr"/>
+      <c r="D7" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F7" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -762,7 +778,11 @@
       </c>
       <c r="D9" s="15" t="inlineStr"/>
       <c r="E9" s="11" t="inlineStr"/>
-      <c r="F9" s="15" t="inlineStr"/>
+      <c r="F9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G9" s="11" t="inlineStr"/>
       <c r="H9" s="15" t="inlineStr"/>
     </row>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
@@ -171,10 +171,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -197,10 +197,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -552,7 +552,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:E37"/>
+      <selection activeCell="G6" sqref="A1:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -647,20 +647,32 @@
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D3" s="15" t="inlineStr"/>
-      <c r="E3" s="11" t="inlineStr"/>
+      <c r="C3" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D3" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E3" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F3" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="G3" s="11" t="inlineStr"/>
-      <c r="H3" s="15" t="inlineStr"/>
+      <c r="H3" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="11" t="n">
@@ -671,12 +683,20 @@
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr"/>
-      <c r="D4" s="15" t="inlineStr"/>
+      <c r="C4" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D4" s="16" t="inlineStr"/>
       <c r="E4" s="11" t="inlineStr"/>
-      <c r="F4" s="15" t="inlineStr"/>
+      <c r="F4" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G4" s="11" t="inlineStr"/>
-      <c r="H4" s="15" t="inlineStr"/>
+      <c r="H4" s="16" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="11" t="n">
@@ -687,20 +707,28 @@
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D5" s="15" t="inlineStr"/>
-      <c r="E5" s="11" t="inlineStr"/>
+      <c r="C5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D5" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F5" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="G5" s="11" t="inlineStr"/>
-      <c r="H5" s="15" t="inlineStr"/>
+      <c r="H5" s="16" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="11" t="n">
@@ -712,11 +740,11 @@
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr"/>
-      <c r="D6" s="15" t="inlineStr"/>
+      <c r="D6" s="16" t="inlineStr"/>
       <c r="E6" s="11" t="inlineStr"/>
-      <c r="F6" s="15" t="inlineStr"/>
+      <c r="F6" s="16" t="inlineStr"/>
       <c r="G6" s="11" t="inlineStr"/>
-      <c r="H6" s="15" t="inlineStr"/>
+      <c r="H6" s="16" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="11" t="n">
@@ -727,13 +755,17 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr"/>
+      <c r="C7" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D7" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="E7" s="16" t="inlineStr">
+      <c r="E7" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -744,7 +776,7 @@
         </is>
       </c>
       <c r="G7" s="11" t="inlineStr"/>
-      <c r="H7" s="15" t="inlineStr"/>
+      <c r="H7" s="16" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="11" t="n">
@@ -756,11 +788,11 @@
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr"/>
-      <c r="D8" s="15" t="inlineStr"/>
+      <c r="D8" s="16" t="inlineStr"/>
       <c r="E8" s="11" t="inlineStr"/>
-      <c r="F8" s="15" t="inlineStr"/>
+      <c r="F8" s="16" t="inlineStr"/>
       <c r="G8" s="11" t="inlineStr"/>
-      <c r="H8" s="15" t="inlineStr"/>
+      <c r="H8" s="16" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="11" t="n">
@@ -771,20 +803,28 @@
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D9" s="15" t="inlineStr"/>
-      <c r="E9" s="11" t="inlineStr"/>
+      <c r="C9" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E9" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F9" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="G9" s="11" t="inlineStr"/>
-      <c r="H9" s="15" t="inlineStr"/>
+      <c r="H9" s="16" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="11" t="n">
@@ -796,11 +836,11 @@
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr"/>
-      <c r="D10" s="15" t="inlineStr"/>
+      <c r="D10" s="16" t="inlineStr"/>
       <c r="E10" s="11" t="inlineStr"/>
-      <c r="F10" s="15" t="inlineStr"/>
+      <c r="F10" s="16" t="inlineStr"/>
       <c r="G10" s="11" t="inlineStr"/>
-      <c r="H10" s="15" t="inlineStr"/>
+      <c r="H10" s="16" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="11" t="n">
@@ -811,7 +851,7 @@
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="16" t="inlineStr">
+      <c r="C11" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -821,12 +861,12 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E11" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F11" s="15" t="inlineStr"/>
+      <c r="E11" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F11" s="16" t="inlineStr"/>
       <c r="G11" s="11" t="inlineStr"/>
       <c r="H11" s="17" t="inlineStr">
         <is>
@@ -844,11 +884,11 @@
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr"/>
-      <c r="D12" s="15" t="inlineStr"/>
+      <c r="D12" s="16" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
-      <c r="F12" s="15" t="inlineStr"/>
+      <c r="F12" s="16" t="inlineStr"/>
       <c r="G12" s="11" t="inlineStr"/>
-      <c r="H12" s="15" t="inlineStr"/>
+      <c r="H12" s="16" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="11" t="n">
@@ -859,12 +899,16 @@
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="11" t="inlineStr"/>
-      <c r="D13" s="15" t="inlineStr"/>
+      <c r="C13" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D13" s="16" t="inlineStr"/>
       <c r="E13" s="11" t="inlineStr"/>
-      <c r="F13" s="15" t="inlineStr"/>
+      <c r="F13" s="16" t="inlineStr"/>
       <c r="G13" s="11" t="inlineStr"/>
-      <c r="H13" s="15" t="inlineStr"/>
+      <c r="H13" s="16" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="11" t="n">
@@ -875,12 +919,12 @@
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D14" s="15" t="inlineStr"/>
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D14" s="16" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
       <c r="F14" s="17" t="inlineStr">
         <is>
@@ -888,7 +932,7 @@
         </is>
       </c>
       <c r="G14" s="11" t="inlineStr"/>
-      <c r="H14" s="15" t="inlineStr"/>
+      <c r="H14" s="16" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="11" t="n">
@@ -900,11 +944,11 @@
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr"/>
-      <c r="D15" s="15" t="inlineStr"/>
+      <c r="D15" s="16" t="inlineStr"/>
       <c r="E15" s="11" t="inlineStr"/>
-      <c r="F15" s="15" t="inlineStr"/>
+      <c r="F15" s="16" t="inlineStr"/>
       <c r="G15" s="11" t="inlineStr"/>
-      <c r="H15" s="15" t="inlineStr"/>
+      <c r="H15" s="16" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="11" t="n">
@@ -916,11 +960,11 @@
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr"/>
-      <c r="D16" s="15" t="inlineStr"/>
+      <c r="D16" s="16" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
-      <c r="F16" s="15" t="inlineStr"/>
+      <c r="F16" s="16" t="inlineStr"/>
       <c r="G16" s="11" t="inlineStr"/>
-      <c r="H16" s="15" t="inlineStr"/>
+      <c r="H16" s="16" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="11" t="n">
@@ -931,16 +975,16 @@
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D17" s="15" t="inlineStr"/>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D17" s="16" t="inlineStr"/>
       <c r="E17" s="11" t="inlineStr"/>
-      <c r="F17" s="15" t="inlineStr"/>
+      <c r="F17" s="16" t="inlineStr"/>
       <c r="G17" s="11" t="inlineStr"/>
-      <c r="H17" s="15" t="inlineStr"/>
+      <c r="H17" s="16" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="11" t="n">
@@ -952,15 +996,23 @@
         </is>
       </c>
       <c r="C18" s="11" t="inlineStr"/>
-      <c r="D18" s="15" t="inlineStr"/>
-      <c r="E18" s="11" t="inlineStr"/>
+      <c r="D18" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E18" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F18" s="17" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="G18" s="11" t="inlineStr"/>
-      <c r="H18" s="15" t="inlineStr"/>
+      <c r="H18" s="16" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="11" t="n">
@@ -971,12 +1023,16 @@
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="11" t="inlineStr"/>
-      <c r="D19" s="15" t="inlineStr"/>
+      <c r="C19" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D19" s="16" t="inlineStr"/>
       <c r="E19" s="11" t="inlineStr"/>
-      <c r="F19" s="15" t="inlineStr"/>
+      <c r="F19" s="16" t="inlineStr"/>
       <c r="G19" s="11" t="inlineStr"/>
-      <c r="H19" s="15" t="inlineStr"/>
+      <c r="H19" s="16" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="11" t="n">
@@ -988,11 +1044,11 @@
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr"/>
-      <c r="D20" s="15" t="inlineStr"/>
+      <c r="D20" s="16" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
-      <c r="F20" s="15" t="inlineStr"/>
+      <c r="F20" s="16" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
-      <c r="H20" s="15" t="inlineStr"/>
+      <c r="H20" s="16" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="11" t="n">
@@ -1004,11 +1060,11 @@
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr"/>
-      <c r="D21" s="15" t="inlineStr"/>
+      <c r="D21" s="16" t="inlineStr"/>
       <c r="E21" s="11" t="inlineStr"/>
-      <c r="F21" s="15" t="inlineStr"/>
+      <c r="F21" s="16" t="inlineStr"/>
       <c r="G21" s="11" t="inlineStr"/>
-      <c r="H21" s="15" t="inlineStr"/>
+      <c r="H21" s="16" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="11" t="n">
@@ -1020,11 +1076,11 @@
         </is>
       </c>
       <c r="C22" s="11" t="inlineStr"/>
-      <c r="D22" s="15" t="inlineStr"/>
+      <c r="D22" s="16" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
-      <c r="F22" s="15" t="inlineStr"/>
+      <c r="F22" s="16" t="inlineStr"/>
       <c r="G22" s="11" t="inlineStr"/>
-      <c r="H22" s="15" t="inlineStr"/>
+      <c r="H22" s="16" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="11" t="n">
@@ -1036,11 +1092,11 @@
         </is>
       </c>
       <c r="C23" s="11" t="inlineStr"/>
-      <c r="D23" s="15" t="inlineStr"/>
+      <c r="D23" s="16" t="inlineStr"/>
       <c r="E23" s="11" t="inlineStr"/>
-      <c r="F23" s="15" t="inlineStr"/>
+      <c r="F23" s="16" t="inlineStr"/>
       <c r="G23" s="11" t="inlineStr"/>
-      <c r="H23" s="15" t="inlineStr"/>
+      <c r="H23" s="16" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="11" t="n">
@@ -1051,16 +1107,16 @@
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D24" s="15" t="inlineStr"/>
+      <c r="C24" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D24" s="16" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
-      <c r="F24" s="15" t="inlineStr"/>
+      <c r="F24" s="16" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
-      <c r="H24" s="15" t="inlineStr"/>
+      <c r="H24" s="16" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="11" t="n">
@@ -1071,7 +1127,7 @@
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="16" t="inlineStr">
+      <c r="C25" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1081,7 +1137,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E25" s="16" t="inlineStr">
+      <c r="E25" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1107,7 +1163,7 @@
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="16" t="inlineStr">
+      <c r="C26" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1117,7 +1173,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E26" s="16" t="inlineStr">
+      <c r="E26" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1143,16 +1199,16 @@
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D27" s="15" t="inlineStr"/>
+      <c r="C27" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D27" s="16" t="inlineStr"/>
       <c r="E27" s="11" t="inlineStr"/>
-      <c r="F27" s="15" t="inlineStr"/>
+      <c r="F27" s="16" t="inlineStr"/>
       <c r="G27" s="11" t="inlineStr"/>
-      <c r="H27" s="15" t="inlineStr"/>
+      <c r="H27" s="16" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="11" t="n">
@@ -1164,7 +1220,7 @@
         </is>
       </c>
       <c r="C28" s="11" t="inlineStr"/>
-      <c r="D28" s="15" t="inlineStr"/>
+      <c r="D28" s="16" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
       <c r="F28" s="17" t="inlineStr">
         <is>
@@ -1172,7 +1228,7 @@
         </is>
       </c>
       <c r="G28" s="11" t="inlineStr"/>
-      <c r="H28" s="15" t="inlineStr"/>
+      <c r="H28" s="16" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="11" t="n">
@@ -1184,11 +1240,11 @@
         </is>
       </c>
       <c r="C29" s="11" t="inlineStr"/>
-      <c r="D29" s="15" t="inlineStr"/>
+      <c r="D29" s="16" t="inlineStr"/>
       <c r="E29" s="11" t="inlineStr"/>
-      <c r="F29" s="15" t="inlineStr"/>
+      <c r="F29" s="16" t="inlineStr"/>
       <c r="G29" s="11" t="inlineStr"/>
-      <c r="H29" s="15" t="inlineStr"/>
+      <c r="H29" s="16" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="11" t="n">
@@ -1200,11 +1256,11 @@
         </is>
       </c>
       <c r="C30" s="11" t="inlineStr"/>
-      <c r="D30" s="15" t="inlineStr"/>
+      <c r="D30" s="16" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
-      <c r="F30" s="15" t="inlineStr"/>
+      <c r="F30" s="16" t="inlineStr"/>
       <c r="G30" s="11" t="inlineStr"/>
-      <c r="H30" s="15" t="inlineStr"/>
+      <c r="H30" s="16" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="11" t="n">
@@ -1215,7 +1271,7 @@
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="16" t="inlineStr">
+      <c r="C31" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1225,7 +1281,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E31" s="16" t="inlineStr">
+      <c r="E31" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1236,7 +1292,11 @@
         </is>
       </c>
       <c r="G31" s="11" t="inlineStr"/>
-      <c r="H31" s="15" t="inlineStr"/>
+      <c r="H31" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="11" t="n">
@@ -1248,11 +1308,11 @@
         </is>
       </c>
       <c r="C32" s="11" t="inlineStr"/>
-      <c r="D32" s="15" t="inlineStr"/>
+      <c r="D32" s="16" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
-      <c r="F32" s="15" t="inlineStr"/>
+      <c r="F32" s="16" t="inlineStr"/>
       <c r="G32" s="11" t="inlineStr"/>
-      <c r="H32" s="15" t="inlineStr"/>
+      <c r="H32" s="16" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="11" t="n">
@@ -1263,16 +1323,28 @@
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D33" s="15" t="inlineStr"/>
-      <c r="E33" s="11" t="inlineStr"/>
-      <c r="F33" s="15" t="inlineStr"/>
+      <c r="C33" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D33" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E33" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F33" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G33" s="11" t="inlineStr"/>
-      <c r="H33" s="15" t="inlineStr"/>
+      <c r="H33" s="16" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="11" t="n">
@@ -1284,11 +1356,11 @@
         </is>
       </c>
       <c r="C34" s="11" t="inlineStr"/>
-      <c r="D34" s="15" t="inlineStr"/>
+      <c r="D34" s="16" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
-      <c r="F34" s="15" t="inlineStr"/>
+      <c r="F34" s="16" t="inlineStr"/>
       <c r="G34" s="11" t="inlineStr"/>
-      <c r="H34" s="15" t="inlineStr"/>
+      <c r="H34" s="16" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="11" t="n">
@@ -1299,7 +1371,7 @@
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="16" t="inlineStr">
+      <c r="C35" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1309,14 +1381,14 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E35" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F35" s="15" t="inlineStr"/>
+      <c r="E35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F35" s="16" t="inlineStr"/>
       <c r="G35" s="11" t="inlineStr"/>
-      <c r="H35" s="15" t="inlineStr"/>
+      <c r="H35" s="16" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="11" t="n">
@@ -1328,11 +1400,11 @@
         </is>
       </c>
       <c r="C36" s="11" t="inlineStr"/>
-      <c r="D36" s="15" t="inlineStr"/>
+      <c r="D36" s="16" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
-      <c r="F36" s="15" t="inlineStr"/>
+      <c r="F36" s="16" t="inlineStr"/>
       <c r="G36" s="11" t="inlineStr"/>
-      <c r="H36" s="15" t="inlineStr"/>
+      <c r="H36" s="16" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="11" t="n">
@@ -1344,11 +1416,11 @@
         </is>
       </c>
       <c r="C37" s="11" t="inlineStr"/>
-      <c r="D37" s="15" t="inlineStr"/>
+      <c r="D37" s="16" t="inlineStr"/>
       <c r="E37" s="11" t="inlineStr"/>
-      <c r="F37" s="15" t="inlineStr"/>
+      <c r="F37" s="16" t="inlineStr"/>
       <c r="G37" s="11" t="inlineStr"/>
-      <c r="H37" s="15" t="inlineStr"/>
+      <c r="H37" s="16" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
@@ -688,8 +688,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D4" s="16" t="inlineStr"/>
-      <c r="E4" s="11" t="inlineStr"/>
+      <c r="D4" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E4" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F4" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1206,7 +1214,11 @@
       </c>
       <c r="D27" s="16" t="inlineStr"/>
       <c r="E27" s="11" t="inlineStr"/>
-      <c r="F27" s="16" t="inlineStr"/>
+      <c r="F27" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G27" s="11" t="inlineStr"/>
       <c r="H27" s="16" t="inlineStr"/>
     </row>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
@@ -1155,7 +1155,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G25" s="11" t="inlineStr"/>
+      <c r="G25" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H25" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1303,7 +1307,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G31" s="11" t="inlineStr"/>
+      <c r="G31" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H31" s="17" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
@@ -874,7 +874,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F11" s="16" t="inlineStr"/>
+      <c r="F11" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G11" s="11" t="inlineStr"/>
       <c r="H11" s="17" t="inlineStr">
         <is>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
@@ -832,7 +832,11 @@
         </is>
       </c>
       <c r="G9" s="11" t="inlineStr"/>
-      <c r="H9" s="16" t="inlineStr"/>
+      <c r="H9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="11" t="n">
@@ -1379,12 +1383,32 @@
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="11" t="inlineStr"/>
-      <c r="D34" s="16" t="inlineStr"/>
-      <c r="E34" s="11" t="inlineStr"/>
+      <c r="C34" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D34" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E34" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F34" s="16" t="inlineStr"/>
-      <c r="G34" s="11" t="inlineStr"/>
-      <c r="H34" s="16" t="inlineStr"/>
+      <c r="G34" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H34" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
@@ -831,7 +831,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G9" s="11" t="inlineStr"/>
+      <c r="G9" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H9" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1398,7 +1402,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F34" s="16" t="inlineStr"/>
+      <c r="F34" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G34" s="15" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
@@ -667,7 +667,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G3" s="11" t="inlineStr"/>
+      <c r="G3" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H3" s="17" t="inlineStr">
         <is>
           <t>ü</t>
@@ -951,7 +955,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G14" s="11" t="inlineStr"/>
+      <c r="G14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H14" s="16" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
@@ -1048,11 +1056,27 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D19" s="16" t="inlineStr"/>
-      <c r="E19" s="11" t="inlineStr"/>
+      <c r="D19" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E19" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F19" s="16" t="inlineStr"/>
-      <c r="G19" s="11" t="inlineStr"/>
-      <c r="H19" s="16" t="inlineStr"/>
+      <c r="G19" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H19" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="11" t="n">
@@ -1442,7 +1466,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F35" s="16" t="inlineStr"/>
+      <c r="F35" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G35" s="11" t="inlineStr"/>
       <c r="H35" s="16" t="inlineStr"/>
     </row>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-16 (8 November 2021 - 14 November 2021).xlsx
@@ -739,7 +739,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G5" s="11" t="inlineStr"/>
+      <c r="G5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H5" s="16" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
@@ -1399,8 +1403,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G33" s="11" t="inlineStr"/>
-      <c r="H33" s="16" t="inlineStr"/>
+      <c r="G33" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H33" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="11" t="n">
